--- a/src/files/EVA_Submission_template.V1.1.3_mockup.xlsx
+++ b/src/files/EVA_Submission_template.V1.1.3_mockup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PLEASE READ FIRST" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="587">
   <si>
     <t>PLEASE READ FIRST</t>
   </si>
@@ -2530,6 +2530,31 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2541,27 +2566,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2590,10 +2594,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="11"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3017,7 +3017,7 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -3029,8 +3029,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -3039,10 +3039,10 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="26.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
+      <c r="B2" s="92"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
@@ -3051,8 +3051,8 @@
       <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="18.75">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
@@ -3061,10 +3061,10 @@
       <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" ht="18.75">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="87" t="s">
         <v>519</v>
       </c>
-      <c r="B4" s="83"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
@@ -3073,8 +3073,8 @@
       <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -3095,10 +3095,10 @@
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="18.75">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="79"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
@@ -3107,8 +3107,8 @@
       <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="84"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -3117,10 +3117,10 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="18.75">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="87" t="s">
         <v>520</v>
       </c>
-      <c r="B9" s="83"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -3129,8 +3129,8 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -3201,22 +3201,22 @@
       <c r="B19" s="89"/>
     </row>
     <row r="20" spans="1:2" ht="18.75">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="83" t="s">
         <v>524</v>
       </c>
-      <c r="B20" s="85"/>
+      <c r="B20" s="83"/>
     </row>
     <row r="21" spans="1:2" ht="18.75">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="85"/>
+      <c r="B21" s="83"/>
     </row>
     <row r="22" spans="1:2" ht="18.75">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="86"/>
+      <c r="B22" s="84"/>
     </row>
     <row r="23" spans="1:2" s="4" customFormat="1">
       <c r="A23" s="63" t="s">
@@ -3284,6 +3284,12 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A8:B8"/>
@@ -3292,12 +3298,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3403,7 +3403,7 @@
   <dimension ref="A1:H281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E3" sqref="E3:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -3456,10 +3456,10 @@
       <c r="B3" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="81" t="s">
         <v>578</v>
       </c>
       <c r="F3" s="49">
@@ -3477,10 +3477,10 @@
       <c r="B4" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="79" t="s">
         <v>577</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="80" t="s">
         <v>579</v>
       </c>
       <c r="H4" t="s">
@@ -3494,10 +3494,10 @@
       <c r="B5" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="80" t="s">
         <v>580</v>
       </c>
       <c r="H5" t="s">
@@ -3511,10 +3511,10 @@
       <c r="B6" t="s">
         <v>228</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="80" t="s">
         <v>576</v>
       </c>
       <c r="H6" t="s">
@@ -3528,10 +3528,10 @@
       <c r="B7" t="s">
         <v>232</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="81" t="s">
         <v>575</v>
       </c>
       <c r="H7" t="s">
@@ -3545,10 +3545,10 @@
       <c r="B8" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="79" t="s">
         <v>572</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="80" t="s">
         <v>182</v>
       </c>
       <c r="H8" t="s">
@@ -3562,7 +3562,7 @@
       <c r="B9" t="s">
         <v>238</v>
       </c>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="80" t="s">
         <v>183</v>
       </c>
       <c r="H9" t="s">
@@ -3576,7 +3576,7 @@
       <c r="B10" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="80" t="s">
         <v>184</v>
       </c>
       <c r="H10" t="s">
@@ -3590,7 +3590,7 @@
       <c r="B11" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="80" t="s">
         <v>185</v>
       </c>
       <c r="H11" t="s">
@@ -3604,7 +3604,7 @@
       <c r="B12" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="80" t="s">
         <v>576</v>
       </c>
       <c r="H12" t="s">
@@ -3615,7 +3615,7 @@
       <c r="B13" t="s">
         <v>249</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="E13" s="80" t="s">
         <v>186</v>
       </c>
       <c r="H13" t="s">
@@ -3626,7 +3626,7 @@
       <c r="B14" t="s">
         <v>251</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="80" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       <c r="B15" t="s">
         <v>252</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="80" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       <c r="B16" t="s">
         <v>253</v>
       </c>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="80" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       <c r="B17" t="s">
         <v>254</v>
       </c>
-      <c r="E17" s="100" t="s">
+      <c r="E17" s="80" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
       <c r="B18" t="s">
         <v>255</v>
       </c>
-      <c r="E18" s="100" t="s">
+      <c r="E18" s="80" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       <c r="B19" t="s">
         <v>256</v>
       </c>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="80" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
       <c r="B20" t="s">
         <v>257</v>
       </c>
-      <c r="E20" s="100" t="s">
+      <c r="E20" s="80" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3682,7 +3682,7 @@
       <c r="B21" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="100" t="s">
+      <c r="E21" s="80" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
       <c r="B22" t="s">
         <v>259</v>
       </c>
-      <c r="E22" s="100" t="s">
+      <c r="E22" s="80" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
       <c r="B23" t="s">
         <v>260</v>
       </c>
-      <c r="E23" s="100" t="s">
+      <c r="E23" s="80" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       <c r="B24" t="s">
         <v>261</v>
       </c>
-      <c r="E24" s="100" t="s">
+      <c r="E24" s="80" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       <c r="B25" t="s">
         <v>262</v>
       </c>
-      <c r="E25" s="100" t="s">
+      <c r="E25" s="80" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       <c r="B26" t="s">
         <v>263</v>
       </c>
-      <c r="E26" s="100" t="s">
+      <c r="E26" s="80" t="s">
         <v>581</v>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       <c r="B27" t="s">
         <v>264</v>
       </c>
-      <c r="E27" s="100" t="s">
+      <c r="E27" s="80" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       <c r="B28" t="s">
         <v>265</v>
       </c>
-      <c r="E28" s="100" t="s">
+      <c r="E28" s="80" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
       <c r="B29" t="s">
         <v>266</v>
       </c>
-      <c r="E29" s="100" t="s">
+      <c r="E29" s="80" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3754,7 +3754,7 @@
       <c r="B30" t="s">
         <v>267</v>
       </c>
-      <c r="E30" s="100" t="s">
+      <c r="E30" s="80" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       <c r="B31" t="s">
         <v>268</v>
       </c>
-      <c r="E31" s="100" t="s">
+      <c r="E31" s="80" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
       <c r="B32" t="s">
         <v>269</v>
       </c>
-      <c r="E32" s="100" t="s">
+      <c r="E32" s="80" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       <c r="B33" t="s">
         <v>270</v>
       </c>
-      <c r="E33" s="100" t="s">
+      <c r="E33" s="80" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       <c r="B34" t="s">
         <v>271</v>
       </c>
-      <c r="E34" s="100" t="s">
+      <c r="E34" s="80" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       <c r="B35" t="s">
         <v>272</v>
       </c>
-      <c r="E35" s="100" t="s">
+      <c r="E35" s="80" t="s">
         <v>574</v>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       <c r="C2" t="s">
         <v>530</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="82" t="s">
         <v>584</v>
       </c>
       <c r="E2" t="s">
@@ -6298,12 +6298,12 @@
   <sheetData>
     <row r="1" spans="1:50" s="12" customFormat="1">
       <c r="A1" s="50"/>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="97"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="101"/>
       <c r="F1" s="30" t="s">
         <v>152</v>
       </c>
@@ -6350,64 +6350,64 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="35"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="90" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="98" t="s">
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98" t="s">
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="90" t="s">
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90" t="s">
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90" t="s">
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="90" t="s">
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="94"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="90"/>
-      <c r="AO2" s="90"/>
-      <c r="AP2" s="90"/>
-      <c r="AQ2" s="90"/>
-      <c r="AR2" s="90"/>
-      <c r="AS2" s="90"/>
+      <c r="AK2" s="94"/>
+      <c r="AL2" s="94"/>
+      <c r="AM2" s="94"/>
+      <c r="AN2" s="94"/>
+      <c r="AO2" s="94"/>
+      <c r="AP2" s="94"/>
+      <c r="AQ2" s="94"/>
+      <c r="AR2" s="94"/>
+      <c r="AS2" s="94"/>
     </row>
     <row r="3" spans="1:50" ht="26.25">
       <c r="A3" s="36" t="s">
@@ -6643,7 +6643,7 @@
       <c r="R5" t="s">
         <v>549</v>
       </c>
-      <c r="Z5" s="100" t="s">
+      <c r="Z5" s="80" t="s">
         <v>586</v>
       </c>
       <c r="AA5" s="73">
@@ -6690,7 +6690,7 @@
       <c r="R6" t="s">
         <v>549</v>
       </c>
-      <c r="Z6" s="100" t="s">
+      <c r="Z6" s="80" t="s">
         <v>586</v>
       </c>
       <c r="AA6" s="73">
@@ -6772,10 +6772,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -6926,128 +6926,168 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="A22" s="81" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="80" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="80" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="80" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="81" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="80" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="80" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="80" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="80" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="80" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="80" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="80" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="80" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="80" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="80" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="80" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="80" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="80" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="80" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="80" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="80" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="80" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="80" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="80" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="80" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="80" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="80" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="80" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="80" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="80" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="80" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="80" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="80" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
